--- a/data/Skill.xlsx
+++ b/data/Skill.xlsx
@@ -130,7 +130,7 @@
     <t>8.0% Active Regeneration (Firewall)</t>
   </si>
   <si>
-    <t>1.0% Danage Bonus (Per Enemy)</t>
+    <t>1.0% Damage Bonus (Per Enemy)</t>
   </si>
   <si>
     <t>5.0% Danage Bonus (Per Enemy)</t>
